--- a/reports_pdf/brasil/risk-pt/Cases/18-06-2020_brasil_report.xlsx
+++ b/reports_pdf/brasil/risk-pt/Cases/18-06-2020_brasil_report.xlsx
@@ -423,28 +423,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10339</v>
+        <v>10664</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7208121827411168</v>
+        <v>1.133248730964467</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7227686063052892</v>
+        <v>0.7816881131943392</v>
       </c>
       <c r="G2" t="n">
-        <v>3318</v>
+        <v>3643</v>
       </c>
       <c r="H2" t="n">
-        <v>412.6865671641791</v>
+        <v>453.1094527363184</v>
       </c>
       <c r="I2" t="n">
-        <v>2398.146235720949</v>
+        <v>2847.689796366978</v>
       </c>
       <c r="J2" t="n">
-        <v>298.2768949901678</v>
+        <v>354.1902731799723</v>
       </c>
     </row>
     <row r="3">
@@ -457,28 +457,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>24867</v>
+        <v>25663</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>796</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7026927333087422</v>
+        <v>0.9963113242345998</v>
       </c>
       <c r="F3" t="n">
-        <v>1.174483559852677</v>
+        <v>1.216429072842085</v>
       </c>
       <c r="G3" t="n">
-        <v>11770</v>
+        <v>12566</v>
       </c>
       <c r="H3" t="n">
-        <v>352.2897336126908</v>
+        <v>376.1149356480096</v>
       </c>
       <c r="I3" t="n">
-        <v>13823.671499466</v>
+        <v>15285.64772933364</v>
       </c>
       <c r="J3" t="n">
-        <v>413.7585004329842</v>
+        <v>457.5171424523687</v>
       </c>
     </row>
     <row r="4">
@@ -491,28 +491,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18618</v>
+        <v>19387</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>769</v>
       </c>
       <c r="E4" t="n">
-        <v>1.062389640965274</v>
+        <v>1.515008828722778</v>
       </c>
       <c r="F4" t="n">
-        <v>1.167800284437123</v>
+        <v>1.232460168402481</v>
       </c>
       <c r="G4" t="n">
-        <v>7067</v>
+        <v>7836</v>
       </c>
       <c r="H4" t="n">
-        <v>921.3820078226859</v>
+        <v>1021.642764015645</v>
       </c>
       <c r="I4" t="n">
-        <v>8252.844610117148</v>
+        <v>9657.55787960184</v>
       </c>
       <c r="J4" t="n">
-        <v>1075.99017081058</v>
+        <v>1259.134012985898</v>
       </c>
     </row>
     <row r="5">
@@ -525,28 +525,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>59547</v>
+        <v>60736</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1189</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8718917217500787</v>
+        <v>1.246144161158325</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9272100970096667</v>
+        <v>0.9806747312108447</v>
       </c>
       <c r="G5" t="n">
-        <v>13074</v>
+        <v>14263</v>
       </c>
       <c r="H5" t="n">
-        <v>331.99593702387</v>
+        <v>362.1889283900457</v>
       </c>
       <c r="I5" t="n">
-        <v>12122.34480830438</v>
+        <v>13987.36369126028</v>
       </c>
       <c r="J5" t="n">
-        <v>307.8299849747177</v>
+        <v>355.1895299964519</v>
       </c>
     </row>
     <row r="6">
@@ -559,28 +559,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>40927</v>
+        <v>41578</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="E6" t="n">
-        <v>1.065420560747663</v>
+        <v>1.275217531421205</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9304913771162108</v>
+        <v>0.9604623729267167</v>
       </c>
       <c r="G6" t="n">
-        <v>17464</v>
+        <v>18115</v>
       </c>
       <c r="H6" t="n">
-        <v>114.8645093396475</v>
+        <v>119.1462772954486</v>
       </c>
       <c r="I6" t="n">
-        <v>16250.1014099575</v>
+        <v>17398.77588556747</v>
       </c>
       <c r="J6" t="n">
-        <v>106.8804354772264</v>
+        <v>114.4355162165711</v>
       </c>
     </row>
     <row r="7">
@@ -593,28 +593,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>86657</v>
+        <v>88132</v>
       </c>
       <c r="D7" t="n">
-        <v>1051</v>
+        <v>2526</v>
       </c>
       <c r="E7" t="n">
-        <v>1.518072289156627</v>
+        <v>1.847166443551986</v>
       </c>
       <c r="F7" t="n">
-        <v>1.005066709117201</v>
+        <v>1.05208015974511</v>
       </c>
       <c r="G7" t="n">
-        <v>26862</v>
+        <v>28337</v>
       </c>
       <c r="H7" t="n">
-        <v>301.6846361185984</v>
+        <v>318.2502246181492</v>
       </c>
       <c r="I7" t="n">
-        <v>26998.10194030626</v>
+        <v>29812.79548669718</v>
       </c>
       <c r="J7" t="n">
-        <v>303.2131844149401</v>
+        <v>334.8247471551795</v>
       </c>
     </row>
     <row r="8">
@@ -627,28 +627,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>27445</v>
+        <v>28521</v>
       </c>
       <c r="D8" t="n">
-        <v>305</v>
+        <v>1381</v>
       </c>
       <c r="E8" t="n">
-        <v>1.488915281076801</v>
+        <v>1.914885193982581</v>
       </c>
       <c r="F8" t="n">
-        <v>1.060918893224925</v>
+        <v>1.121771737925751</v>
       </c>
       <c r="G8" t="n">
-        <v>14522</v>
+        <v>15598</v>
       </c>
       <c r="H8" t="n">
-        <v>498.1818181818182</v>
+        <v>535.0943396226415</v>
       </c>
       <c r="I8" t="n">
-        <v>15406.66416741236</v>
+        <v>17497.39556816586</v>
       </c>
       <c r="J8" t="n">
-        <v>528.5305031702354</v>
+        <v>600.2537073127226</v>
       </c>
     </row>
     <row r="9">
@@ -661,28 +661,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>30508</v>
+        <v>31772</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1264</v>
       </c>
       <c r="E9" t="n">
-        <v>1.090076335877863</v>
+        <v>1.572519083969466</v>
       </c>
       <c r="F9" t="n">
-        <v>0.943664597032751</v>
+        <v>1.012584989617266</v>
       </c>
       <c r="G9" t="n">
-        <v>13614</v>
+        <v>14878</v>
       </c>
       <c r="H9" t="n">
-        <v>346.412213740458</v>
+        <v>378.5750636132316</v>
       </c>
       <c r="I9" t="n">
-        <v>12847.04982400387</v>
+        <v>15065.23947552568</v>
       </c>
       <c r="J9" t="n">
-        <v>326.8969420866125</v>
+        <v>383.3394268581598</v>
       </c>
     </row>
     <row r="10">
@@ -695,10 +695,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>13102</v>
+        <v>13695</v>
       </c>
       <c r="D10" t="n">
-        <v>326</v>
+        <v>919</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -707,16 +707,16 @@
         <v>2.081865980381356</v>
       </c>
       <c r="G10" t="n">
-        <v>8000</v>
+        <v>8593</v>
       </c>
       <c r="H10" t="n">
-        <v>121.0104371502042</v>
+        <v>129.9803358039631</v>
       </c>
       <c r="I10" t="n">
-        <v>16654.92784305085</v>
+        <v>17889.47436941699</v>
       </c>
       <c r="J10" t="n">
-        <v>251.9275123740863</v>
+        <v>270.6016392288155</v>
       </c>
     </row>
     <row r="11">
@@ -729,28 +729,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>64735</v>
+        <v>66091</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1356</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7742478041487573</v>
+        <v>1.027658381610914</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8901649510678548</v>
+        <v>0.9263664621338771</v>
       </c>
       <c r="G11" t="n">
-        <v>21422</v>
+        <v>22778</v>
       </c>
       <c r="H11" t="n">
-        <v>310.2838933951332</v>
+        <v>329.9246813441483</v>
       </c>
       <c r="I11" t="n">
-        <v>19069.11358177559</v>
+        <v>21100.77527448545</v>
       </c>
       <c r="J11" t="n">
-        <v>276.2038467812222</v>
+        <v>305.6311598274254</v>
       </c>
     </row>
     <row r="12">
@@ -763,28 +763,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7361</v>
+        <v>8166</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>805</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9938587512794268</v>
+        <v>1.817809621289662</v>
       </c>
       <c r="F12" t="n">
-        <v>1.345133900171984</v>
+        <v>1.462841167316303</v>
       </c>
       <c r="G12" t="n">
-        <v>3973</v>
+        <v>4778</v>
       </c>
       <c r="H12" t="n">
-        <v>121.6845329249617</v>
+        <v>146.3399693721286</v>
       </c>
       <c r="I12" t="n">
-        <v>5344.21698538329</v>
+        <v>6989.455097437294</v>
       </c>
       <c r="J12" t="n">
-        <v>163.6819903639599</v>
+        <v>214.0721316213566</v>
       </c>
     </row>
     <row r="13">
@@ -800,13 +800,13 @@
         <v>4274</v>
       </c>
       <c r="D13" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0.843103448275862</v>
       </c>
       <c r="F13" t="n">
-        <v>1.361145293861059</v>
+        <v>1.38577583573298</v>
       </c>
       <c r="G13" t="n">
         <v>2277</v>
@@ -815,10 +815,10 @@
         <v>85.89211618257261</v>
       </c>
       <c r="I13" t="n">
-        <v>3099.327834121631</v>
+        <v>3155.411577963995</v>
       </c>
       <c r="J13" t="n">
-        <v>116.911649721676</v>
+        <v>119.0272190857788</v>
       </c>
     </row>
     <row r="14">
@@ -865,28 +865,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>76623</v>
+        <v>80072</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>3449</v>
       </c>
       <c r="E15" t="n">
-        <v>1.053868756121449</v>
+        <v>1.729480901077375</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9721140862911968</v>
+        <v>1.068630106999186</v>
       </c>
       <c r="G15" t="n">
-        <v>27150</v>
+        <v>30599</v>
       </c>
       <c r="H15" t="n">
-        <v>332.1100917431193</v>
+        <v>374.2996941896025</v>
       </c>
       <c r="I15" t="n">
-        <v>26392.89744280599</v>
+        <v>32699.0126440681</v>
       </c>
       <c r="J15" t="n">
-        <v>322.8488983829479</v>
+        <v>399.9879222515975</v>
       </c>
     </row>
     <row r="16">
@@ -899,28 +899,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>31712</v>
+        <v>31760</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8895382817066043</v>
+        <v>0.9035651665692578</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9857943882664347</v>
+        <v>0.9877982289610995</v>
       </c>
       <c r="G16" t="n">
-        <v>14133</v>
+        <v>14181</v>
       </c>
       <c r="H16" t="n">
-        <v>355.8157099697885</v>
+        <v>357.02416918429</v>
       </c>
       <c r="I16" t="n">
-        <v>13932.23208936952</v>
+        <v>14007.96668489735</v>
       </c>
       <c r="J16" t="n">
-        <v>350.7611301452548</v>
+        <v>352.6678420165496</v>
       </c>
     </row>
     <row r="17">
@@ -933,28 +933,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>11225</v>
+        <v>12059</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>834</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9767441860465116</v>
+        <v>1.564482029598309</v>
       </c>
       <c r="F17" t="n">
-        <v>1.285388140798361</v>
+        <v>1.369350689877189</v>
       </c>
       <c r="G17" t="n">
-        <v>5330</v>
+        <v>6164</v>
       </c>
       <c r="H17" t="n">
-        <v>47.74702141001523</v>
+        <v>55.2181313267043</v>
       </c>
       <c r="I17" t="n">
-        <v>6851.118790455265</v>
+        <v>8440.677652402994</v>
       </c>
       <c r="J17" t="n">
-        <v>61.37345507887902</v>
+        <v>75.61298622595176</v>
       </c>
     </row>
     <row r="18">
@@ -1001,28 +1001,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>12099</v>
+        <v>12567</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>468</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9157894736842105</v>
+        <v>1.267669172932331</v>
       </c>
       <c r="F19" t="n">
-        <v>1.196745328533292</v>
+        <v>1.247013856997309</v>
       </c>
       <c r="G19" t="n">
-        <v>5382</v>
+        <v>5850</v>
       </c>
       <c r="H19" t="n">
-        <v>167.9775280898876</v>
+        <v>182.5842696629213</v>
       </c>
       <c r="I19" t="n">
-        <v>6440.883358166179</v>
+        <v>7295.03106343426</v>
       </c>
       <c r="J19" t="n">
-        <v>201.0263220401429</v>
+        <v>227.6851143393963</v>
       </c>
     </row>
     <row r="20">
@@ -1035,28 +1035,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>86963</v>
+        <v>87317</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="E20" t="n">
-        <v>1.348196280528792</v>
+        <v>1.427515124355814</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8471198864791164</v>
+        <v>0.8584511498829767</v>
       </c>
       <c r="G20" t="n">
-        <v>26031</v>
+        <v>26385</v>
       </c>
       <c r="H20" t="n">
-        <v>157.2870090634441</v>
+        <v>159.4259818731118</v>
       </c>
       <c r="I20" t="n">
-        <v>22051.37776493788</v>
+        <v>22650.23358966234</v>
       </c>
       <c r="J20" t="n">
-        <v>133.2409532624645</v>
+        <v>136.8594174601954</v>
       </c>
     </row>
     <row r="21">
@@ -1072,13 +1072,13 @@
         <v>15889</v>
       </c>
       <c r="D21" t="n">
-        <v>677</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0.7225186766275347</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6612078222176513</v>
+        <v>0.731883003800793</v>
       </c>
       <c r="G21" t="n">
         <v>6456</v>
@@ -1087,10 +1087,10 @@
         <v>187.5653689715282</v>
       </c>
       <c r="I21" t="n">
-        <v>4268.757700237156</v>
+        <v>4725.036672537919</v>
       </c>
       <c r="J21" t="n">
-        <v>124.0196891411144</v>
+        <v>137.2759056518861</v>
       </c>
     </row>
     <row r="22">
@@ -1103,28 +1103,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>17128</v>
+        <v>17822</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>694</v>
       </c>
       <c r="E22" t="n">
-        <v>1.676587301587302</v>
+        <v>2.365079365079365</v>
       </c>
       <c r="F22" t="n">
-        <v>1.209939647887798</v>
+        <v>1.308295656958092</v>
       </c>
       <c r="G22" t="n">
-        <v>6118</v>
+        <v>6812</v>
       </c>
       <c r="H22" t="n">
-        <v>54.39189189189189</v>
+        <v>60.56187766714082</v>
       </c>
       <c r="I22" t="n">
-        <v>7402.410765777545</v>
+        <v>8912.110015198525</v>
       </c>
       <c r="J22" t="n">
-        <v>65.81090652362683</v>
+        <v>79.23284152914762</v>
       </c>
     </row>
     <row r="23">
@@ -1137,28 +1137,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>13567</v>
+        <v>13804</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7456989247311828</v>
+        <v>0.8731182795698925</v>
       </c>
       <c r="F23" t="n">
-        <v>0.851009166039088</v>
+        <v>0.8692119310160465</v>
       </c>
       <c r="G23" t="n">
-        <v>7108</v>
+        <v>7345</v>
       </c>
       <c r="H23" t="n">
-        <v>402.0361990950227</v>
+        <v>415.4411764705882</v>
       </c>
       <c r="I23" t="n">
-        <v>6048.973152205838</v>
+        <v>6384.361633312862</v>
       </c>
       <c r="J23" t="n">
-        <v>342.13649050938</v>
+        <v>361.1064272235782</v>
       </c>
     </row>
     <row r="24">
@@ -1171,28 +1171,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>7421</v>
+        <v>7650</v>
       </c>
       <c r="D24" t="n">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="E24" t="n">
-        <v>1.729537366548043</v>
+        <v>2.544483985765125</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5547391179632279</v>
+        <v>0.7493707417763465</v>
       </c>
       <c r="G24" t="n">
-        <v>2590</v>
+        <v>2819</v>
       </c>
       <c r="H24" t="n">
-        <v>511.8577075098814</v>
+        <v>557.1146245059289</v>
       </c>
       <c r="I24" t="n">
-        <v>1436.77431552476</v>
+        <v>2112.476121067521</v>
       </c>
       <c r="J24" t="n">
-        <v>283.9474931867115</v>
+        <v>417.4853994204587</v>
       </c>
     </row>
     <row r="25">
@@ -1205,28 +1205,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>15015</v>
+        <v>15573</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>558</v>
       </c>
       <c r="E25" t="n">
-        <v>1.502849002849003</v>
+        <v>2.297720797720798</v>
       </c>
       <c r="F25" t="n">
-        <v>1.00924388729199</v>
+        <v>1.122797000845103</v>
       </c>
       <c r="G25" t="n">
-        <v>4482</v>
+        <v>5040</v>
       </c>
       <c r="H25" t="n">
-        <v>65.72811262648482</v>
+        <v>73.91113066432028</v>
       </c>
       <c r="I25" t="n">
-        <v>4523.431102842699</v>
+        <v>5658.896884259321</v>
       </c>
       <c r="J25" t="n">
-        <v>66.33569589151926</v>
+        <v>82.98719583896937</v>
       </c>
     </row>
     <row r="26">
@@ -1273,28 +1273,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>16807</v>
+        <v>17338</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>531</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5028876055086628</v>
+        <v>0.7387827632163483</v>
       </c>
       <c r="F27" t="n">
-        <v>2.001208468225043</v>
+        <v>2.034907776468998</v>
       </c>
       <c r="G27" t="n">
-        <v>8607</v>
+        <v>9138</v>
       </c>
       <c r="H27" t="n">
-        <v>383.7271511368703</v>
+        <v>407.4008024966562</v>
       </c>
       <c r="I27" t="n">
-        <v>17224.40128601295</v>
+        <v>18594.98726137371</v>
       </c>
       <c r="J27" t="n">
-        <v>767.9180243429759</v>
+        <v>829.0230611401563</v>
       </c>
     </row>
     <row r="28">
@@ -1310,13 +1310,13 @@
         <v>7774</v>
       </c>
       <c r="D28" t="n">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>1.049661399548533</v>
       </c>
       <c r="F28" t="n">
-        <v>0.7609282758793396</v>
+        <v>0.8035310736750158</v>
       </c>
       <c r="G28" t="n">
         <v>2893</v>
@@ -1325,10 +1325,10 @@
         <v>190.957095709571</v>
       </c>
       <c r="I28" t="n">
-        <v>2201.36550211893</v>
+        <v>2324.61539614182</v>
       </c>
       <c r="J28" t="n">
-        <v>145.3046536052099</v>
+        <v>153.4399601413743</v>
       </c>
     </row>
     <row r="29">
@@ -1341,28 +1341,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>966763</v>
+        <v>984464</v>
       </c>
       <c r="D29" t="n">
-        <v>6791</v>
+        <v>23233</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9897175354428333</v>
+        <v>1.228262627351625</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9983032084478402</v>
+        <v>1.035179080732364</v>
       </c>
       <c r="G29" t="n">
-        <v>346062</v>
+        <v>363763</v>
       </c>
       <c r="H29" t="n">
-        <v>169.2656848407182</v>
+        <v>177.923589746098</v>
       </c>
       <c r="I29" t="n">
-        <v>345474.8049218765</v>
+        <v>376559.847944447</v>
       </c>
       <c r="J29" t="n">
-        <v>168.97847625661</v>
+        <v>184.1827780739681</v>
       </c>
     </row>
   </sheetData>
